--- a/Descargas/R15_6º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Mayo.xlsx
+++ b/Descargas/R15_6º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Mayo.xlsx
@@ -711,7 +711,7 @@
         </is>
       </c>
       <c r="B51" s="65">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52">
